--- a/legislator/property/output/normal/蔣乃辛_2011-11-21_財產申報表_tmp12421.xlsx
+++ b/legislator/property/output/normal/蔣乃辛_2011-11-21_財產申報表_tmp12421.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="94">
   <si>
     <t>土地坐落</t>
   </si>
@@ -186,6 +186,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>國泰金控</t>
   </si>
   <si>
@@ -199,6 +208,9 @@
   </si>
   <si>
     <t>279；030</t>
+  </si>
+  <si>
+    <t>2011-11-21</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1106,13 +1118,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1131,13 +1143,22 @@
       <c r="G1" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -1154,13 +1175,22 @@
       <c r="G2" s="2">
         <v>159860</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -1177,13 +1207,22 @@
       <c r="G3" s="2">
         <v>3640</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -1200,13 +1239,22 @@
       <c r="G4" s="2">
         <v>8120</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -1221,7 +1269,16 @@
         <v>45</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1722</v>
       </c>
     </row>
   </sheetData>
@@ -1239,19 +1296,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>35</v>
@@ -1262,13 +1319,13 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2">
         <v>38792</v>
@@ -1295,16 +1352,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1312,16 +1369,16 @@
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1329,10 +1386,10 @@
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>28</v>
@@ -1344,10 +1401,10 @@
         <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -1359,10 +1416,10 @@
         <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -1374,10 +1431,10 @@
         <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -1389,10 +1446,10 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -1404,10 +1461,10 @@
         <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -1419,10 +1476,10 @@
         <v>92</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
@@ -1447,19 +1504,19 @@
         <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1467,13 +1524,13 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E2" s="2">
         <v>500000</v>
@@ -1482,7 +1539,7 @@
         <v>94</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1503,19 +1560,19 @@
         <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1523,22 +1580,22 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2">
         <v>4251536</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔣乃辛_2011-11-21_財產申報表_tmp12421.xlsx
+++ b/legislator/property/output/normal/蔣乃辛_2011-11-21_財產申報表_tmp12421.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="96">
   <si>
     <t>土地坐落</t>
   </si>
@@ -186,6 +186,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -208,6 +211,9 @@
   </si>
   <si>
     <t>279；030</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2011-11-21</t>
@@ -1118,13 +1124,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1152,13 +1158,16 @@
       <c r="J1" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -1176,21 +1185,24 @@
         <v>159860</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>1722</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -1208,21 +1220,24 @@
         <v>3640</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>1722</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -1240,21 +1255,24 @@
         <v>8120</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>1722</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -1269,15 +1287,18 @@
         <v>45</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>1722</v>
       </c>
     </row>
@@ -1296,19 +1317,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>35</v>
@@ -1319,13 +1340,13 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2">
         <v>38792</v>
@@ -1352,16 +1373,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1369,16 +1390,16 @@
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1386,10 +1407,10 @@
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>28</v>
@@ -1401,10 +1422,10 @@
         <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -1416,10 +1437,10 @@
         <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -1431,10 +1452,10 @@
         <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -1446,10 +1467,10 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -1461,10 +1482,10 @@
         <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -1476,10 +1497,10 @@
         <v>92</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
@@ -1504,19 +1525,19 @@
         <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1524,13 +1545,13 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2">
         <v>500000</v>
@@ -1539,7 +1560,7 @@
         <v>94</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1560,19 +1581,19 @@
         <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1580,22 +1601,22 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2">
         <v>4251536</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔣乃辛_2011-11-21_財產申報表_tmp12421.xlsx
+++ b/legislator/property/output/normal/蔣乃辛_2011-11-21_財產申報表_tmp12421.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="101">
   <si>
     <t>土地坐落</t>
   </si>
@@ -189,6 +189,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -198,6 +201,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>國泰金控</t>
   </si>
   <si>
@@ -210,13 +219,19 @@
     <t>聯華電子</t>
   </si>
   <si>
-    <t>279；030</t>
+    <t>279030</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2011-11-21</t>
+  </si>
+  <si>
+    <t>tmp12421</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1124,13 +1139,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1161,13 +1176,22 @@
       <c r="K1" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -1185,24 +1209,33 @@
         <v>159860</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>1722</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -1220,24 +1253,33 @@
         <v>3640</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>1722</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -1255,24 +1297,33 @@
         <v>8120</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>1722</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -1287,19 +1338,28 @@
         <v>45</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>1722</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N5" s="2">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1317,19 +1377,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>35</v>
@@ -1340,13 +1400,13 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2">
         <v>38792</v>
@@ -1373,16 +1433,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1390,16 +1450,16 @@
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1407,10 +1467,10 @@
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>28</v>
@@ -1422,10 +1482,10 @@
         <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -1437,10 +1497,10 @@
         <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -1452,10 +1512,10 @@
         <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -1467,10 +1527,10 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -1482,10 +1542,10 @@
         <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -1497,10 +1557,10 @@
         <v>92</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
@@ -1525,19 +1585,19 @@
         <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1545,13 +1605,13 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2">
         <v>500000</v>
@@ -1560,7 +1620,7 @@
         <v>94</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1581,19 +1641,19 @@
         <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1601,22 +1661,22 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E2" s="2">
         <v>4251536</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔣乃辛_2011-11-21_財產申報表_tmp12421.xlsx
+++ b/legislator/property/output/normal/蔣乃辛_2011-11-21_財產申報表_tmp12421.xlsx
@@ -22,9 +22,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="101">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="106">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市大安區金華段三小段01220000地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區金華段二小段01000000地號</t>
+  </si>
+  <si>
+    <t>4分之1</t>
+  </si>
+  <si>
+    <t>5分之1</t>
+  </si>
+  <si>
+    <t>楊際英</t>
+  </si>
+  <si>
+    <t>97年05月30日</t>
+  </si>
+  <si>
+    <t>79年11月30日</t>
+  </si>
+  <si>
+    <t>(自購屋）</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-21</t>
+  </si>
+  <si>
+    <t>蔣乃辛</t>
+  </si>
+  <si>
+    <t>tmp12421</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -45,40 +129,10 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市大安區金華段三小段 0122-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區金華段二小段 0100-0000 地號</t>
-  </si>
-  <si>
-    <t>4分之1</t>
-  </si>
-  <si>
-    <t>5分之1</t>
-  </si>
-  <si>
-    <t>楊際英</t>
-  </si>
-  <si>
-    <t>97年05月 30日</t>
-  </si>
-  <si>
-    <t>79年11月 30日</t>
-  </si>
-  <si>
-    <t>(自購屋）</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市大安區金華段三小段 00322-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區金華段二小段 00707-000 建號</t>
+    <t>臺北市大安區金華段三小段00322000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區金華段二小段00707000建號</t>
   </si>
   <si>
     <t>.103.56</t>
@@ -90,10 +144,10 @@
     <t>全部</t>
   </si>
   <si>
-    <t>97年07月 27日</t>
-  </si>
-  <si>
-    <t>113,700,</t>
+    <t>97年07月27日</t>
+  </si>
+  <si>
+    <t>113700</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -105,13 +159,10 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>豐田汽車-國瑞TOYOTA</t>
-  </si>
-  <si>
-    <t>蔣乃辛</t>
-  </si>
-  <si>
-    <t>99年02月 02日</t>
+    <t>豐田汽車國瑞TOYOTA</t>
+  </si>
+  <si>
+    <t>99年02月02日</t>
   </si>
   <si>
     <t>(自購）</t>
@@ -132,13 +183,13 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>台北富邦商業銀行金華分 行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司青 田支局</t>
-  </si>
-  <si>
-    <t>f華郵政股份有限公司青 ffl支局</t>
+    <t>台北富邦商業銀行金華分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司青田支局</t>
+  </si>
+  <si>
+    <t>f華郵政股份有限公司青ffl支局</t>
   </si>
   <si>
     <t>華南商業銀行信義分行</t>
@@ -165,13 +216,7 @@
     <t>美金</t>
   </si>
   <si>
-    <t>2^4</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
+    <t>24</t>
   </si>
   <si>
     <t>quantity</t>
@@ -186,27 +231,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>國泰金控</t>
   </si>
   <si>
@@ -225,15 +249,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-11-21</t>
-  </si>
-  <si>
-    <t>tmp12421</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -249,7 +264,7 @@
     <t>富達全聚焦</t>
   </si>
   <si>
-    <t>台北富邦銀行 金華分行</t>
+    <t>台北富邦銀行金華分行</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -288,7 +303,7 @@
     <t>債權人</t>
   </si>
   <si>
-    <t>債務人•及地址</t>
+    <t>債務人及地址</t>
   </si>
   <si>
     <t>餘額</t>
@@ -303,10 +318,10 @@
     <t>暫付款</t>
   </si>
   <si>
-    <t>高美美 臺北市羅斯福路</t>
-  </si>
-  <si>
-    <t>借款（無法 追回已被倒 債）</t>
+    <t>高美美臺北市羅斯福路</t>
+  </si>
+  <si>
+    <t>借款（無法追回已被倒債）</t>
   </si>
   <si>
     <t>債務人</t>
@@ -318,13 +333,13 @@
     <t>房貸</t>
   </si>
   <si>
-    <t>永豐銀行三重分行 新北市三重區忠孝路</t>
-  </si>
-  <si>
-    <t>97年06月 02日</t>
-  </si>
-  <si>
-    <t>金山南路2 段房屋購屋 貸款</t>
+    <t>永豐銀行三重分行新北市三重區忠孝路</t>
+  </si>
+  <si>
+    <t>97年06月02日</t>
+  </si>
+  <si>
+    <t>金山南路2段房屋購屋貸款</t>
   </si>
 </sst>
 </file>
@@ -683,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,56 +726,119 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>164</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2">
         <v>11299600</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1722</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>222</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1722</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="2">
         <v>15</v>
       </c>
     </row>
@@ -779,25 +857,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -805,25 +883,25 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -831,25 +909,25 @@
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2">
         <v>149.92</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -867,22 +945,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -890,19 +968,19 @@
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2">
         <v>2362</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2">
         <v>950000</v>
@@ -923,22 +1001,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -946,16 +1024,16 @@
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -967,16 +1045,16 @@
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -988,16 +1066,16 @@
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1009,16 +1087,16 @@
         <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1030,16 +1108,16 @@
         <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1051,16 +1129,16 @@
         <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1072,16 +1150,16 @@
         <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1093,22 +1171,22 @@
         <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2">
         <v>7.75</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1116,16 +1194,16 @@
         <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1147,43 +1225,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1191,10 +1269,10 @@
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2">
         <v>15986</v>
@@ -1203,28 +1281,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="G2" s="2">
         <v>159860</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L2" s="2">
         <v>1722</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="N2" s="2">
         <v>58</v>
@@ -1235,10 +1313,10 @@
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2">
         <v>364</v>
@@ -1247,28 +1325,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="G3" s="2">
         <v>3640</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L3" s="2">
         <v>1722</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="N3" s="2">
         <v>59</v>
@@ -1279,10 +1357,10 @@
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
         <v>812</v>
@@ -1291,28 +1369,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="G4" s="2">
         <v>8120</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L4" s="2">
         <v>1722</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="N4" s="2">
         <v>60</v>
@@ -1323,10 +1401,10 @@
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2">
         <v>27903</v>
@@ -1335,28 +1413,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L5" s="2">
         <v>1722</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="N5" s="2">
         <v>61</v>
@@ -1377,22 +1455,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1400,19 +1478,19 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2">
         <v>38792</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2">
         <v>1171518</v>
@@ -1433,16 +1511,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1450,16 +1528,16 @@
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1467,13 +1545,13 @@
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1482,13 +1560,13 @@
         <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -1497,13 +1575,13 @@
         <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -1512,13 +1590,13 @@
         <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -1527,13 +1605,13 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -1542,13 +1620,13 @@
         <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -1557,13 +1635,13 @@
         <v>92</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -1582,22 +1660,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1605,13 +1683,13 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E2" s="2">
         <v>500000</v>
@@ -1620,7 +1698,7 @@
         <v>94</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1638,22 +1716,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1661,22 +1739,22 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2">
         <v>4251536</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔣乃辛_2011-11-21_財產申報表_tmp12421.xlsx
+++ b/legislator/property/output/normal/蔣乃辛_2011-11-21_財產申報表_tmp12421.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="73">
   <si>
     <t>name</t>
   </si>
@@ -66,24 +66,21 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺北市大安區金華段三小段01220000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺北市大安區金華段二小段01000000地號</t>
   </si>
   <si>
-    <t>4分之1</t>
-  </si>
-  <si>
     <t>5分之1</t>
   </si>
   <si>
     <t>楊際英</t>
   </si>
   <si>
-    <t>97年05月30日</t>
-  </si>
-  <si>
     <t>79年11月30日</t>
   </si>
   <si>
@@ -108,57 +105,27 @@
     <t>tmp12421</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍（持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得)時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>臺北市大安區金華段三小段00322000建號</t>
   </si>
   <si>
+    <t>.103.56</t>
+  </si>
+  <si>
+    <t>全齒</t>
+  </si>
+  <si>
+    <t>97年07月27日</t>
+  </si>
+  <si>
+    <t>113700</t>
+  </si>
+  <si>
     <t>臺北市大安區金華段二小段00707000建號</t>
   </si>
   <si>
-    <t>.103.56</t>
-  </si>
-  <si>
-    <t>全齒</t>
-  </si>
-  <si>
     <t>全部</t>
   </si>
   <si>
-    <t>97年07月27日</t>
-  </si>
-  <si>
-    <t>113700</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸寧量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>豐田汽車國瑞TOYOTA</t>
   </si>
   <si>
@@ -168,24 +135,15 @@
     <t>(自購）</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>台北富邦商業銀行金華分行</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>中華郵政股份有限公司青田支局</t>
   </si>
   <si>
@@ -204,15 +162,9 @@
     <t>永豐商業銀行三重分行</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>活期存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -228,12 +180,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>國泰金控</t>
-  </si>
-  <si>
     <t>開發金控</t>
   </si>
   <si>
@@ -249,48 +195,24 @@
     <t>stock</t>
   </si>
   <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
     <t>富達全聚焦</t>
   </si>
   <si>
     <t>台北富邦銀行金華分行</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>美國全民壽險公司</t>
   </si>
   <si>
+    <t>20年期養老儲蓄險</t>
+  </si>
+  <si>
     <t>國泰人壽</t>
   </si>
   <si>
     <t>富邦人壽(原安泰ING)</t>
   </si>
   <si>
-    <t>20年期養老儲蓄險</t>
-  </si>
-  <si>
     <t>儲蓄型壽險</t>
   </si>
   <si>
@@ -300,21 +222,6 @@
     <t>還本終身壽險</t>
   </si>
   <si>
-    <t>債權人</t>
-  </si>
-  <si>
-    <t>債務人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>暫付款</t>
   </si>
   <si>
@@ -322,12 +229,6 @@
   </si>
   <si>
     <t>借款（無法追回已被倒債）</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
   </si>
   <si>
     <t>房貸</t>
@@ -698,13 +599,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -747,19 +648,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>164</v>
+        <v>222</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -768,78 +675,37 @@
         <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="2">
-        <v>11299600</v>
-      </c>
       <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="M2" s="2">
         <v>1722</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
-        <v>222</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1722</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="2">
-        <v>15</v>
+      <c r="P2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>44.4</v>
       </c>
     </row>
   </sheetData>
@@ -849,7 +715,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -857,77 +723,51 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2">
+        <v>149.92</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>21</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="2">
-        <v>149.92</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -937,7 +777,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2362</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1">
+        <v>950000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -945,268 +818,189 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>1433574</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2362</v>
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="2">
-        <v>950000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>43</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>1433574</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>1419</v>
+        <v>132584</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>132584</v>
+        <v>1461520</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>1461520</v>
+        <v>258909</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>258909</v>
+        <v>91020</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>91020</v>
+        <v>68960</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>68960</v>
+      <c r="F8" s="2">
+        <v>7.75</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="2">
-        <v>7.75</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>51</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
         <v>39854</v>
       </c>
     </row>
@@ -1217,7 +1011,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1231,16 +1025,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1266,177 +1060,133 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2">
-        <v>15986</v>
+        <v>364</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2">
-        <v>159860</v>
+        <v>3640</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="L2" s="2">
         <v>1722</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N2" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2">
-        <v>364</v>
+        <v>812</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G3" s="2">
-        <v>3640</v>
+        <v>8120</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="L3" s="2">
         <v>1722</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N3" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2">
-        <v>812</v>
+        <v>27903</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="2">
-        <v>8120</v>
+        <v>39</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="L4" s="2">
         <v>1722</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N4" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1">
-        <v>61</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2">
-        <v>27903</v>
-      </c>
-      <c r="E5" s="2">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1722</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="2">
         <v>61</v>
       </c>
     </row>
@@ -1447,52 +1197,29 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
+      </c>
+      <c r="E1" s="1">
+        <v>38792</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>71</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="2">
-        <v>38792</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="2">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1">
         <v>1171518</v>
       </c>
     </row>
@@ -1503,7 +1230,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1511,139 +1238,122 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>92</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1652,53 +1362,30 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="1">
+        <v>500000</v>
+      </c>
+      <c r="F1" s="1">
         <v>94</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>97</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="2">
-        <v>500000</v>
-      </c>
-      <c r="F2" s="2">
-        <v>94</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1708,53 +1395,30 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>70</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4251536</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>102</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="2">
-        <v>4251536</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔣乃辛_2011-11-21_財產申報表_tmp12421.xlsx
+++ b/legislator/property/output/normal/蔣乃辛_2011-11-21_財產申報表_tmp12421.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="75">
   <si>
     <t>name</t>
   </si>
@@ -72,15 +72,24 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市大安區金華段三小段01220000地號</t>
+  </si>
+  <si>
     <t>臺北市大安區金華段二小段01000000地號</t>
   </si>
   <si>
+    <t>4分之1</t>
+  </si>
+  <si>
     <t>5分之1</t>
   </si>
   <si>
     <t>楊際英</t>
   </si>
   <si>
+    <t>97年05月30日</t>
+  </si>
+  <si>
     <t>79年11月30日</t>
   </si>
   <si>
@@ -108,10 +117,10 @@
     <t>臺北市大安區金華段三小段00322000建號</t>
   </si>
   <si>
-    <t>.103.56</t>
-  </si>
-  <si>
-    <t>全齒</t>
+    <t>臺北市大安區金華段二小段00707000建號</t>
+  </si>
+  <si>
+    <t>全部</t>
   </si>
   <si>
     <t>97年07月27日</t>
@@ -120,12 +129,6 @@
     <t>113700</t>
   </si>
   <si>
-    <t>臺北市大安區金華段二小段00707000建號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
     <t>豐田汽車國瑞TOYOTA</t>
   </si>
   <si>
@@ -178,6 +181,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>國泰金控</t>
   </si>
   <si>
     <t>開發金控</t>
@@ -599,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -657,54 +663,107 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="H2" s="2">
+        <v>11299600</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M2" s="2">
         <v>1722</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>222</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="2">
+      <c r="K3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1722</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="2">
         <v>15</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P3" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q3" s="2">
         <v>44.4</v>
       </c>
     </row>
@@ -715,59 +774,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2">
+        <v>103.56</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="M2" s="2">
+        <v>1722</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="O2" s="2">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>103.56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="C3" s="2">
+        <v>149.92</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1722</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="2">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
         <v>149.92</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -777,29 +943,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1">
         <v>2362</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1">
+        <v>950000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="2">
+        <v>2362</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="1">
+      <c r="F2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="2">
         <v>950000</v>
       </c>
     </row>
@@ -810,7 +999,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -818,16 +1007,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -836,171 +1025,192 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>1419</v>
+        <v>1433574</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>132584</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>1461520</v>
+        <v>132584</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>258909</v>
+        <v>1461520</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>91020</v>
+        <v>258909</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>68960</v>
+        <v>91020</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="2">
-        <v>7.75</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>48</v>
+        <v>20</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <v>68960</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
+        <v>50</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2">
+        <v>7.75</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>51</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
         <v>39854</v>
       </c>
     </row>
@@ -1011,7 +1221,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1025,13 +1235,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1060,133 +1270,177 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2">
-        <v>364</v>
+        <v>15986</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2">
-        <v>3640</v>
+        <v>159860</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2">
         <v>1722</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N2" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2">
-        <v>812</v>
+        <v>364</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2">
-        <v>8120</v>
+        <v>3640</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L3" s="2">
         <v>1722</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N3" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2">
-        <v>27903</v>
+        <v>812</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>55</v>
+        <v>40</v>
+      </c>
+      <c r="G4" s="2">
+        <v>8120</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L4" s="2">
         <v>1722</v>
       </c>
       <c r="M4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>61</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2">
+        <v>27903</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="2">
+      <c r="J5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1722</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="2">
         <v>61</v>
       </c>
     </row>
@@ -1197,29 +1451,52 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1">
         <v>38792</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1">
+        <v>1171518</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>71</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="2">
+        <v>38792</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="2">
         <v>1171518</v>
       </c>
     </row>
@@ -1230,7 +1507,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1238,121 +1515,138 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>92</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1362,21 +1656,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1">
         <v>500000</v>
@@ -1385,7 +1679,30 @@
         <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>97</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>68</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="2">
+        <v>500000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>94</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1395,30 +1712,53 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1">
         <v>4251536</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>102</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>72</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4251536</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔣乃辛_2011-11-21_財產申報表_tmp12421.xlsx
+++ b/legislator/property/output/normal/蔣乃辛_2011-11-21_財產申報表_tmp12421.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="76">
   <si>
     <t>name</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>113700</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>豐田汽車國瑞TOYOTA</t>
@@ -943,38 +946,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1">
-        <v>2362</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1">
-        <v>950000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2">
         <v>2362</v>
@@ -983,13 +1007,34 @@
         <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2">
         <v>950000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1722</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1007,13 +1052,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>28</v>
@@ -1028,13 +1073,13 @@
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>28</v>
@@ -1049,13 +1094,13 @@
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>28</v>
@@ -1070,13 +1115,13 @@
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -1091,13 +1136,13 @@
         <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -1112,13 +1157,13 @@
         <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -1133,13 +1178,13 @@
         <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -1154,13 +1199,13 @@
         <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -1175,13 +1220,13 @@
         <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -1190,7 +1235,7 @@
         <v>7.75</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1198,13 +1243,13 @@
         <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -1235,13 +1280,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1273,7 +1318,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1285,13 +1330,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2">
         <v>159860</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>26</v>
@@ -1317,7 +1362,7 @@
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1329,13 +1374,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3" s="2">
         <v>3640</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>26</v>
@@ -1361,7 +1406,7 @@
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1373,13 +1418,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2">
         <v>8120</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>26</v>
@@ -1405,7 +1450,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -1417,13 +1462,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>26</v>
@@ -1459,19 +1504,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1">
         <v>38792</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1">
         <v>1171518</v>
@@ -1482,19 +1527,19 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2">
         <v>38792</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2">
         <v>1171518</v>
@@ -1515,16 +1560,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1532,13 +1577,13 @@
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>28</v>
@@ -1549,10 +1594,10 @@
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
@@ -1564,10 +1609,10 @@
         <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
@@ -1579,10 +1624,10 @@
         <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
@@ -1594,10 +1639,10 @@
         <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
@@ -1609,10 +1654,10 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
@@ -1624,10 +1669,10 @@
         <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
@@ -1639,10 +1684,10 @@
         <v>92</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
@@ -1664,13 +1709,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1">
         <v>500000</v>
@@ -1679,7 +1724,7 @@
         <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1687,13 +1732,13 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2">
         <v>500000</v>
@@ -1702,7 +1747,7 @@
         <v>94</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1720,22 +1765,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1">
         <v>4251536</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1743,22 +1788,22 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2">
         <v>4251536</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔣乃辛_2011-11-21_財產申報表_tmp12421.xlsx
+++ b/legislator/property/output/normal/蔣乃辛_2011-11-21_財產申報表_tmp12421.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="78">
   <si>
     <t>name</t>
   </si>
@@ -129,6 +129,9 @@
     <t>113700</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -139,6 +142,9 @@
   </si>
   <si>
     <t>(自購）</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>台北富邦商業銀行金華分行</t>
@@ -859,7 +865,7 @@
         <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>26</v>
@@ -912,7 +918,7 @@
         <v>24</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>26</v>
@@ -957,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -998,7 +1004,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2">
         <v>2362</v>
@@ -1007,16 +1013,16 @@
         <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2">
         <v>950000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>26</v>
@@ -1052,13 +1058,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>28</v>
@@ -1073,13 +1079,13 @@
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>28</v>
@@ -1094,13 +1100,13 @@
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>28</v>
@@ -1115,13 +1121,13 @@
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -1136,13 +1142,13 @@
         <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -1157,13 +1163,13 @@
         <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -1178,13 +1184,13 @@
         <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -1199,13 +1205,13 @@
         <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -1220,13 +1226,13 @@
         <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -1235,7 +1241,7 @@
         <v>7.75</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1243,13 +1249,13 @@
         <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -1280,13 +1286,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1318,7 +1324,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1330,13 +1336,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G2" s="2">
         <v>159860</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>26</v>
@@ -1362,7 +1368,7 @@
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1374,13 +1380,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G3" s="2">
         <v>3640</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>26</v>
@@ -1406,7 +1412,7 @@
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1418,13 +1424,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G4" s="2">
         <v>8120</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>26</v>
@@ -1450,7 +1456,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -1462,13 +1468,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>26</v>
@@ -1504,19 +1510,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1">
         <v>38792</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1">
         <v>1171518</v>
@@ -1527,19 +1533,19 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2">
         <v>38792</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G2" s="2">
         <v>1171518</v>
@@ -1560,16 +1566,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1577,13 +1583,13 @@
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>28</v>
@@ -1594,10 +1600,10 @@
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
@@ -1609,10 +1615,10 @@
         <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
@@ -1624,10 +1630,10 @@
         <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
@@ -1639,10 +1645,10 @@
         <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
@@ -1654,10 +1660,10 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
@@ -1669,10 +1675,10 @@
         <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
@@ -1684,10 +1690,10 @@
         <v>92</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
@@ -1709,13 +1715,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1">
         <v>500000</v>
@@ -1724,7 +1730,7 @@
         <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1732,13 +1738,13 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2">
         <v>500000</v>
@@ -1747,7 +1753,7 @@
         <v>94</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1765,22 +1771,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1">
         <v>4251536</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1788,22 +1794,22 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2">
         <v>4251536</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔣乃辛_2011-11-21_財產申報表_tmp12421.xlsx
+++ b/legislator/property/output/normal/蔣乃辛_2011-11-21_財產申報表_tmp12421.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="80">
   <si>
     <t>name</t>
   </si>
@@ -147,49 +147,55 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>台北富邦商業銀行金華分行</t>
   </si>
   <si>
+    <t>中華郵政股份有限公司青田支局</t>
+  </si>
+  <si>
+    <t>f華郵政股份有限公司青ffl支局</t>
+  </si>
+  <si>
+    <t>華南商業銀行信義分行</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行南京東</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行忠孝</t>
+  </si>
+  <si>
+    <t>永豐商業銀行三重分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司青田支局</t>
-  </si>
-  <si>
-    <t>f華郵政股份有限公司青ffl支局</t>
-  </si>
-  <si>
-    <t>華南商業銀行信義分行</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行南京東</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行忠孝</t>
-  </si>
-  <si>
-    <t>永豐商業銀行三重分行</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
-    <t>24</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>國泰金控</t>
@@ -1050,13 +1056,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
@@ -1067,202 +1073,400 @@
         <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>1433574</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1433574</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1722</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2">
         <v>43</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>1433574</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1419</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1722</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="2">
         <v>44</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2">
+        <v>132584</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1722</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="2">
         <v>45</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>132584</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1461520</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1722</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="2">
         <v>46</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>1461520</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2">
+        <v>258909</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1722</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="2">
         <v>47</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>258909</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2">
+        <v>91020</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1722</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="2">
         <v>48</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>91020</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2">
+        <v>68960</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1722</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="2">
         <v>49</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>68960</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2">
+        <v>24</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1722</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="2">
         <v>50</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="2">
-        <v>7.75</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>39854</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1722</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="2">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1286,13 +1490,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1324,7 +1528,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1336,13 +1540,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2">
         <v>159860</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>26</v>
@@ -1368,7 +1572,7 @@
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1380,13 +1584,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G3" s="2">
         <v>3640</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>26</v>
@@ -1412,7 +1616,7 @@
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1424,13 +1628,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G4" s="2">
         <v>8120</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>26</v>
@@ -1456,7 +1660,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -1468,13 +1672,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>26</v>
@@ -1510,19 +1714,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1">
         <v>38792</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1">
         <v>1171518</v>
@@ -1533,19 +1737,19 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2">
         <v>38792</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G2" s="2">
         <v>1171518</v>
@@ -1566,16 +1770,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1583,13 +1787,13 @@
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>28</v>
@@ -1600,10 +1804,10 @@
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
@@ -1615,10 +1819,10 @@
         <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
@@ -1630,10 +1834,10 @@
         <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
@@ -1645,10 +1849,10 @@
         <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
@@ -1660,10 +1864,10 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
@@ -1675,10 +1879,10 @@
         <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
@@ -1690,10 +1894,10 @@
         <v>92</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
@@ -1715,13 +1919,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1">
         <v>500000</v>
@@ -1730,7 +1934,7 @@
         <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1738,13 +1942,13 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2">
         <v>500000</v>
@@ -1753,7 +1957,7 @@
         <v>94</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1771,22 +1975,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1">
         <v>4251536</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1794,22 +1998,22 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2">
         <v>4251536</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔣乃辛_2011-11-21_財產申報表_tmp12421.xlsx
+++ b/legislator/property/output/normal/蔣乃辛_2011-11-21_財產申報表_tmp12421.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="82">
   <si>
     <t>name</t>
   </si>
@@ -216,10 +216,16 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>富達全聚焦</t>
   </si>
   <si>
     <t>台北富邦銀行金華分行</t>
+  </si>
+  <si>
+    <t>fund</t>
   </si>
   <si>
     <t>美國全民壽險公司</t>
@@ -1706,53 +1712,101 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="1">
-        <v>38792</v>
+      <c r="E1" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="1">
-        <v>1171518</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
         <v>38792</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>1171518</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1722</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1770,16 +1824,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1787,13 +1841,13 @@
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>28</v>
@@ -1804,10 +1858,10 @@
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
@@ -1819,10 +1873,10 @@
         <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
@@ -1834,10 +1888,10 @@
         <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
@@ -1849,10 +1903,10 @@
         <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
@@ -1864,10 +1918,10 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
@@ -1879,10 +1933,10 @@
         <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
@@ -1894,10 +1948,10 @@
         <v>92</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
@@ -1919,13 +1973,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1">
         <v>500000</v>
@@ -1934,7 +1988,7 @@
         <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1942,13 +1996,13 @@
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2">
         <v>500000</v>
@@ -1957,7 +2011,7 @@
         <v>94</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1975,22 +2029,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1">
         <v>4251536</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1998,22 +2052,22 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2">
         <v>4251536</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔣乃辛_2011-11-21_財產申報表_tmp12421.xlsx
+++ b/legislator/property/output/normal/蔣乃辛_2011-11-21_財產申報表_tmp12421.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="88">
   <si>
     <t>name</t>
   </si>
@@ -228,18 +228,21 @@
     <t>fund</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>美國全民壽險公司</t>
   </si>
   <si>
+    <t>國泰人壽</t>
+  </si>
+  <si>
+    <t>富邦人壽(原安泰ING)</t>
+  </si>
+  <si>
     <t>20年期養老儲蓄險</t>
   </si>
   <si>
-    <t>國泰人壽</t>
-  </si>
-  <si>
-    <t>富邦人壽(原安泰ING)</t>
-  </si>
-  <si>
     <t>儲蓄型壽險</t>
   </si>
   <si>
@@ -249,6 +252,15 @@
     <t>還本終身壽險</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>暫付款</t>
   </si>
   <si>
@@ -258,6 +270,9 @@
     <t>借款（無法追回已被倒債）</t>
   </si>
   <si>
+    <t>claim</t>
+  </si>
+  <si>
     <t>房貸</t>
   </si>
   <si>
@@ -268,6 +283,9 @@
   </si>
   <si>
     <t>金山南路2段房屋購屋貸款</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -1816,59 +1834,115 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1722</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1722</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>87</v>
       </c>
@@ -1876,14 +1950,34 @@
         <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1722</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>88</v>
       </c>
@@ -1891,14 +1985,34 @@
         <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1722</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>89</v>
       </c>
@@ -1906,14 +2020,34 @@
         <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1722</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>90</v>
       </c>
@@ -1921,14 +2055,34 @@
         <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1722</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>91</v>
       </c>
@@ -1936,14 +2090,34 @@
         <v>71</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1722</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>92</v>
       </c>
@@ -1951,11 +2125,31 @@
         <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>76</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1722</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="2">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1965,44 +2159,65 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="1">
-        <v>500000</v>
-      </c>
-      <c r="F1" s="1">
-        <v>94</v>
+        <v>78</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2">
         <v>500000</v>
@@ -2011,7 +2226,28 @@
         <v>94</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1722</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2021,53 +2257,95 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="1">
-        <v>4251536</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2">
         <v>4251536</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1722</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
